--- a/reincarnation-three-kingdoms/checklist.xlsx
+++ b/reincarnation-three-kingdoms/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/reincarnation-three-kingdoms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1862187-AD74-C941-935B-03F8DA5BF6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A62363B4-E165-A147-8F84-0201015DDF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="600" windowWidth="25080" windowHeight="15800" xr2:uid="{5DC4ACA9-E076-AD4F-B9C0-74051127EB96}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>year</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Warlord Battle RPG Reincarnation Three Kingdoms</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Warlord Battle RPG Reincarnation Romance of the Three Kingdoms 2 Haouyukisho</t>
@@ -112,9 +109,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9783D53C-7625-BA40-9451-B8CDE0B4150F}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -488,18 +484,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/reincarnation-three-kingdoms/checklist.xlsx
+++ b/reincarnation-three-kingdoms/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/reincarnation-three-kingdoms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A62363B4-E165-A147-8F84-0201015DDF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBF80C1-5A8B-2844-86D1-4C79EFDC80D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="600" windowWidth="25080" windowHeight="15800" xr2:uid="{5DC4ACA9-E076-AD4F-B9C0-74051127EB96}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>year</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Shinkigensha</t>
+  </si>
+  <si>
+    <t>rulebook</t>
+  </si>
+  <si>
+    <t>supplement</t>
   </si>
 </sst>
 </file>
@@ -427,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9783D53C-7625-BA40-9451-B8CDE0B4150F}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,6 +481,9 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -491,6 +500,9 @@
       </c>
       <c r="E3" t="s">
         <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
